--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460367F0-1E0F-E24E-879C-FE231610C9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C71D38C-AAA4-5F4F-AE4A-8D3E431E4489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16980" xr2:uid="{32A18D36-7223-421E-8BD4-94987A61F2EB}"/>
+    <workbookView xWindow="8080" yWindow="0" windowWidth="20720" windowHeight="16980" xr2:uid="{32A18D36-7223-421E-8BD4-94987A61F2EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Epi Tracker" sheetId="3" r:id="rId1"/>
+    <sheet name="Schedule" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -472,7 +472,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,25 +519,25 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="4">
-        <v>45418</v>
+        <v>45421</v>
       </c>
       <c r="D2" s="4">
-        <v>45419</v>
+        <v>45422</v>
       </c>
       <c r="E2" s="4">
-        <v>45420</v>
+        <v>45423</v>
       </c>
       <c r="F2" s="4">
-        <v>45421</v>
+        <v>45424</v>
       </c>
       <c r="G2" s="4">
-        <v>45422</v>
+        <v>45425</v>
       </c>
       <c r="H2" s="4">
-        <v>45423</v>
+        <v>45426</v>
       </c>
       <c r="I2" s="4">
-        <v>45424</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -545,27 +545,6 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="4">
-        <v>45421</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45422</v>
-      </c>
-      <c r="E3" s="4">
-        <v>45423</v>
-      </c>
-      <c r="F3" s="4">
-        <v>45424</v>
-      </c>
-      <c r="G3" s="4">
-        <v>45425</v>
-      </c>
-      <c r="H3" s="4">
-        <v>45426</v>
-      </c>
-      <c r="I3" s="4">
-        <v>45427</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C71D38C-AAA4-5F4F-AE4A-8D3E431E4489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B719CD2-E7DE-DD46-BCCA-D4336774591D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="0" windowWidth="20720" windowHeight="16980" xr2:uid="{32A18D36-7223-421E-8BD4-94987A61F2EB}"/>
+    <workbookView xWindow="1540" yWindow="0" windowWidth="27260" windowHeight="16980" xr2:uid="{32A18D36-7223-421E-8BD4-94987A61F2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Make overnights</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Day 5</t>
+  </si>
+  <si>
+    <t>Strain</t>
   </si>
 </sst>
 </file>
@@ -472,16 +475,17 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" bestFit="1" customWidth="1"/>
@@ -490,7 +494,9 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -545,32 +551,81 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B3" s="1"/>
+      <c r="C3" s="4">
+        <v>45425</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45426</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45427</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45428</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45429</v>
+      </c>
+      <c r="H3" s="4">
+        <v>45430</v>
+      </c>
+      <c r="I3" s="4">
+        <v>45431</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="C4" s="4">
+        <v>45428</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45429</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45430</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45431</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45432</v>
+      </c>
+      <c r="H4" s="4">
+        <v>45433</v>
+      </c>
+      <c r="I4" s="4">
+        <v>45434</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2.4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="C5" s="4">
+        <v>45432</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45433</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45434</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45435</v>
+      </c>
+      <c r="G5" s="4">
+        <v>45436</v>
+      </c>
+      <c r="H5" s="4">
+        <v>45437</v>
+      </c>
+      <c r="I5" s="4">
+        <v>45438</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B719CD2-E7DE-DD46-BCCA-D4336774591D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA7D487-ECAC-E843-8A0F-539451AFE5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="0" windowWidth="27260" windowHeight="16980" xr2:uid="{32A18D36-7223-421E-8BD4-94987A61F2EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Make overnights</t>
   </si>
@@ -61,6 +61,13 @@
   </si>
   <si>
     <t>Strain</t>
+  </si>
+  <si>
+    <t>194 (2)</t>
+  </si>
+  <si>
+    <t>194 (1)
+204 (2)</t>
   </si>
 </sst>
 </file>
@@ -94,7 +101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +111,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -156,6 +169,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -472,21 +488,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BF0DAF-E9EB-6040-8B81-57790A12E3B5}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="16.33203125" style="5"/>
@@ -519,21 +534,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2.1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8">
         <v>45421</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <v>45422</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="8">
         <v>45423</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="8">
         <v>45424</v>
       </c>
       <c r="G2" s="4">
@@ -546,12 +563,14 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="4">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8">
         <v>45425</v>
       </c>
       <c r="D3" s="4">
@@ -606,25 +625,25 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="4">
+        <v>45431</v>
+      </c>
+      <c r="D5" s="4">
         <v>45432</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>45433</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>45434</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>45435</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>45436</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>45437</v>
-      </c>
-      <c r="I5" s="4">
-        <v>45438</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -632,13 +651,27 @@
         <v>2.5</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="C6" s="4">
+        <v>45432</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45433</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45434</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45435</v>
+      </c>
+      <c r="G6" s="4">
+        <v>45436</v>
+      </c>
+      <c r="H6" s="4">
+        <v>45437</v>
+      </c>
+      <c r="I6" s="4">
+        <v>45438</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -666,6 +699,19 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA7D487-ECAC-E843-8A0F-539451AFE5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449CF376-8737-6747-9E09-B35AD6504FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="0" windowWidth="27260" windowHeight="16980" xr2:uid="{32A18D36-7223-421E-8BD4-94987A61F2EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Make overnights</t>
   </si>
@@ -68,6 +68,25 @@
   <si>
     <t>194 (1)
 204 (2)</t>
+  </si>
+  <si>
+    <t>204 (1)
+14 (2)</t>
+  </si>
+  <si>
+    <t>14 (1)
+6 (2)</t>
+  </si>
+  <si>
+    <t>200 (1)
+221 (2)</t>
+  </si>
+  <si>
+    <t>221 (1)</t>
+  </si>
+  <si>
+    <t>6 (1)
+200 (2)</t>
   </si>
 </sst>
 </file>
@@ -165,13 +184,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -488,16 +507,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BF0DAF-E9EB-6040-8B81-57790A12E3B5}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="7" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="23" style="5" bestFit="1" customWidth="1"/>
@@ -541,22 +560,22 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>45421</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>45422</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>45423</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>45424</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="7">
         <v>45425</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="7">
         <v>45426</v>
       </c>
       <c r="I2" s="4">
@@ -570,10 +589,10 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>45425</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>45426</v>
       </c>
       <c r="E3" s="4">
@@ -592,125 +611,150 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="4">
-        <v>45428</v>
+        <v>45432</v>
       </c>
       <c r="D4" s="4">
-        <v>45429</v>
+        <v>45433</v>
       </c>
       <c r="E4" s="4">
-        <v>45430</v>
+        <v>45434</v>
       </c>
       <c r="F4" s="4">
-        <v>45431</v>
+        <v>45435</v>
       </c>
       <c r="G4" s="4">
-        <v>45432</v>
+        <v>45436</v>
       </c>
       <c r="H4" s="4">
-        <v>45433</v>
+        <v>45437</v>
       </c>
       <c r="I4" s="4">
-        <v>45434</v>
+        <v>45438</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2.4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="4">
-        <v>45431</v>
+        <v>45435</v>
       </c>
       <c r="D5" s="4">
-        <v>45432</v>
+        <v>45436</v>
       </c>
       <c r="E5" s="4">
-        <v>45433</v>
+        <v>45437</v>
       </c>
       <c r="F5" s="4">
-        <v>45434</v>
+        <v>45438</v>
       </c>
       <c r="G5" s="4">
-        <v>45435</v>
+        <v>45439</v>
       </c>
       <c r="H5" s="4">
-        <v>45436</v>
+        <v>45440</v>
       </c>
       <c r="I5" s="4">
-        <v>45437</v>
+        <v>45441</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2.5</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="4">
-        <v>45432</v>
+        <v>45438</v>
       </c>
       <c r="D6" s="4">
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="E6" s="4">
-        <v>45434</v>
+        <v>45440</v>
       </c>
       <c r="F6" s="4">
-        <v>45435</v>
+        <v>45441</v>
       </c>
       <c r="G6" s="4">
-        <v>45436</v>
+        <v>45442</v>
       </c>
       <c r="H6" s="4">
-        <v>45437</v>
+        <v>45443</v>
       </c>
       <c r="I6" s="4">
-        <v>45438</v>
+        <v>45444</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2.6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45439</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45440</v>
+      </c>
+      <c r="E7" s="4">
+        <v>45441</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45442</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45443</v>
+      </c>
+      <c r="H7" s="4">
+        <v>45444</v>
+      </c>
+      <c r="I7" s="4">
+        <v>45445</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2.7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45442</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45443</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45444</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45445</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45446</v>
+      </c>
+      <c r="H8" s="4">
+        <v>45447</v>
+      </c>
+      <c r="I8" s="4">
+        <v>45448</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449CF376-8737-6747-9E09-B35AD6504FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2F8BB0-E4B1-D844-B461-8E314DE57987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="0" windowWidth="27260" windowHeight="16980" xr2:uid="{32A18D36-7223-421E-8BD4-94987A61F2EB}"/>
   </bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +595,7 @@
       <c r="D3" s="7">
         <v>45426</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>45427</v>
       </c>
       <c r="F3" s="4">
